--- a/log/PSOELM_extracted_result/PSOELM_slp61_result/PSOELM_slp61_result.xlsx
+++ b/log/PSOELM_extracted_result/PSOELM_slp61_result/PSOELM_slp61_result.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fennia\Documents\MATLAB\thesis\PSOELM_slp61_result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fennia\Documents\MATLAB\thesis\log\PSOELM_extracted_result\PSOELM_slp61_result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="103">
   <si>
     <t>Experiment</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>1 5 6 9 10 14 16 17</t>
+  </si>
+  <si>
+    <t>BEST EXPERIMENT</t>
   </si>
 </sst>
 </file>
@@ -700,7 +703,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1068,7 +1071,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1088,7 +1091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1108,7 +1111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1128,7 +1131,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1148,7 +1151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1168,7 +1171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1188,7 +1191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1208,7 +1211,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1226,6 +1229,9 @@
       </c>
       <c r="F26" t="s">
         <v>25</v>
+      </c>
+      <c r="G26" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1643,7 +1649,7 @@
         <v>45</v>
       </c>
       <c r="G20" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2261,7 +2267,7 @@
         <v>74</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2619,7 +2625,7 @@
         <v>90</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
